--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55D118-45C5-4278-B5B4-5D567E3F435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5F9C8-8819-4C66-9B08-47CCAA95BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="8820" yWindow="1905" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -177,10 +177,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,11 +218,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,246 +1067,119 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1994</v>
+      <c r="A2">
+        <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.6613654059472992</v>
+        <v>0.57630000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1995</v>
+      <c r="A3">
+        <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.65666662435166534</v>
+        <v>0.56940000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1996</v>
+      <c r="A4">
+        <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.65162882226991414</v>
+        <v>0.5716</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1997</v>
+      <c r="A5">
+        <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.64942413470967808</v>
+        <v>0.56459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1998</v>
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.64547705146902756</v>
+        <v>0.55630000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1999</v>
+      <c r="A7">
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.64460168570888343</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2000</v>
+      <c r="A8">
+        <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.64477324955863657</v>
+        <v>0.54810000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2001</v>
+      <c r="A9">
+        <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.64570195231543648</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2002</v>
+      <c r="A10">
+        <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.64737782355652385</v>
+        <v>0.55130000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2003</v>
+      <c r="A11">
+        <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.64448143654604106</v>
+        <v>0.55389999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2004</v>
+      <c r="A12">
+        <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.64389807700679014</v>
+        <v>0.55249999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2005</v>
+      <c r="A13">
+        <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.63601678163112885</v>
+        <v>0.55259999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2006</v>
+      <c r="A14">
+        <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.63885715724636716</v>
+        <v>0.55269999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2007</v>
+      <c r="A15">
+        <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.63970331929393809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2008</v>
-      </c>
-      <c r="B16">
-        <v>0.63745385907812036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B17">
-        <v>0.64638142900294271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B18">
-        <v>0.64291910814000863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B19">
-        <v>0.64183543445918845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B20">
-        <v>0.64457311813040019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B21">
-        <v>0.64501821298769013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B22">
-        <v>0.64303300577959377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B23">
-        <v>0.64350137796521267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B24">
-        <v>0.64443090532156433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B25">
-        <v>0.64369538754708922</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B26">
-        <v>0.64389678969687036</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B27">
-        <v>0.63975244582712099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B28">
-        <v>0.64948824720523413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B29">
-        <v>0.64443733677754689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2022</v>
-      </c>
-      <c r="B30">
-        <v>0.64425404141077236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2023</v>
-      </c>
-      <c r="B31">
-        <v>0.64425404141077236</v>
+        <v>0.55279999999999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1809,16 +1687,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="23" max="26" width="9.140625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1896,10 +1771,10 @@
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1970,13 +1845,13 @@
         <f t="shared" si="0"/>
         <v>23250</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4">
         <v>1994</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4">
         <v>0.49405969999999999</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <f>2*X4/(2*X4+(1-X4))</f>
         <v>0.6613654059472992</v>
       </c>
@@ -2048,14 +1923,14 @@
         <f t="shared" ref="U5:U12" si="9">I5*$K$4/$K5</f>
         <v>23088.381330685203</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5">
         <f>W4+1</f>
         <v>1995</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5">
         <v>0.48883369999999998</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <f t="shared" ref="Y5:Y31" si="10">2*X5/(2*X5+(1-X5))</f>
         <v>0.65666662435166534</v>
       </c>
@@ -2127,14 +2002,14 @@
         <f t="shared" si="9"/>
         <v>22485.493230174081</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" ref="W6:W42" si="11">W5+1</f>
+      <c r="W6">
+        <f t="shared" ref="W6:W31" si="11">W5+1</f>
         <v>1996</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6">
         <v>0.48327110000000001</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <f t="shared" si="10"/>
         <v>0.65162882226991414</v>
       </c>
@@ -2206,14 +2081,14 @@
         <f t="shared" si="9"/>
         <v>21954.67422096317</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7">
         <f t="shared" si="11"/>
         <v>1997</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7">
         <v>0.48084979999999999</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <f t="shared" si="10"/>
         <v>0.64942413470967808</v>
       </c>
@@ -2285,14 +2160,14 @@
         <f t="shared" si="9"/>
         <v>21567.717996289426</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8">
         <f t="shared" si="11"/>
         <v>1998</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8">
         <v>0.47653459999999997</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <f t="shared" si="10"/>
         <v>0.64547705146902756</v>
       </c>
@@ -2364,14 +2239,14 @@
         <f t="shared" si="9"/>
         <v>21389.144434222631</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9">
         <f t="shared" si="11"/>
         <v>1999</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9">
         <v>0.47558099999999998</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <f t="shared" si="10"/>
         <v>0.64460168570888343</v>
       </c>
@@ -2443,14 +2318,14 @@
         <f t="shared" si="9"/>
         <v>20833.333333333336</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10">
         <f t="shared" si="11"/>
         <v>2000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10">
         <v>0.47576780000000002</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <f t="shared" si="10"/>
         <v>0.64477324955863657</v>
       </c>
@@ -2522,14 +2397,14 @@
         <f t="shared" si="9"/>
         <v>19104.354971240755</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11">
         <f t="shared" si="11"/>
         <v>2001</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11">
         <v>0.47677979999999998</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <f t="shared" si="10"/>
         <v>0.64570195231543648</v>
       </c>
@@ -2601,14 +2476,14 @@
         <f t="shared" si="9"/>
         <v>18663.611748853393</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12">
         <f t="shared" si="11"/>
         <v>2002</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12">
         <v>0.47860950000000002</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <f t="shared" si="10"/>
         <v>0.64737782355652385</v>
       </c>
@@ -2662,14 +2537,14 @@
         <f t="shared" ref="U13:U16" si="14">I13*$K$4/$K13</f>
         <v>18360.484915871581</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13">
         <f t="shared" si="11"/>
         <v>2003</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13">
         <v>0.47545009999999999</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <f t="shared" si="10"/>
         <v>0.64448143654604106</v>
       </c>
@@ -2723,14 +2598,14 @@
         <f t="shared" si="14"/>
         <v>18006.917277302477</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14">
         <f t="shared" si="11"/>
         <v>2004</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14">
         <v>0.4748154</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <f t="shared" si="10"/>
         <v>0.64389807700679014</v>
       </c>
@@ -2784,14 +2659,14 @@
         <f t="shared" si="14"/>
         <v>17653.840467943606</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15">
         <f t="shared" si="11"/>
         <v>2005</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15">
         <v>0.46629369999999998</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <f t="shared" si="10"/>
         <v>0.63601678163112885</v>
       </c>
@@ -2845,227 +2720,227 @@
         <f t="shared" si="14"/>
         <v>17205.948416783383</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16">
         <f t="shared" si="11"/>
         <v>2006</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16">
         <v>0.46935349999999998</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <f t="shared" si="10"/>
         <v>0.63885715724636716</v>
       </c>
     </row>
     <row r="17" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W17" s="3">
+      <c r="W17">
         <f t="shared" si="11"/>
         <v>2007</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17">
         <v>0.4702675</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <f t="shared" si="10"/>
         <v>0.63970331929393809</v>
       </c>
     </row>
     <row r="18" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W18" s="3">
+      <c r="W18">
         <f t="shared" si="11"/>
         <v>2008</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18">
         <v>0.46784019999999998</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <f t="shared" si="10"/>
         <v>0.63745385907812036</v>
       </c>
     </row>
     <row r="19" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W19" s="3">
+      <c r="W19">
         <f t="shared" si="11"/>
         <v>2009</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19">
         <v>0.47752109999999998</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <f t="shared" si="10"/>
         <v>0.64638142900294271</v>
       </c>
     </row>
     <row r="20" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W20" s="3">
+      <c r="W20">
         <f t="shared" si="11"/>
         <v>2010</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20">
         <v>0.47375149999999999</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20">
         <f t="shared" si="10"/>
         <v>0.64291910814000863</v>
       </c>
     </row>
     <row r="21" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W21" s="3">
+      <c r="W21">
         <f t="shared" si="11"/>
         <v>2011</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21">
         <v>0.47257559999999998</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21">
         <f t="shared" si="10"/>
         <v>0.64183543445918845</v>
       </c>
     </row>
     <row r="22" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W22" s="3">
+      <c r="W22">
         <f t="shared" si="11"/>
         <v>2012</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22">
         <v>0.47554990000000003</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22">
         <f t="shared" si="10"/>
         <v>0.64457311813040019</v>
       </c>
     </row>
     <row r="23" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W23" s="3">
+      <c r="W23">
         <f t="shared" si="11"/>
         <v>2013</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23">
         <v>0.47603459999999997</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <f t="shared" si="10"/>
         <v>0.64501821298769013</v>
       </c>
     </row>
     <row r="24" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W24" s="3">
+      <c r="W24">
         <f t="shared" si="11"/>
         <v>2014</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24">
         <v>0.4738752</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <f t="shared" si="10"/>
         <v>0.64303300577959377</v>
       </c>
     </row>
     <row r="25" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W25" s="3">
+      <c r="W25">
         <f t="shared" si="11"/>
         <v>2015</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25">
         <v>0.47438409999999998</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <f t="shared" si="10"/>
         <v>0.64350137796521267</v>
       </c>
     </row>
     <row r="26" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W26" s="3">
+      <c r="W26">
         <f t="shared" si="11"/>
         <v>2016</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26">
         <v>0.47539510000000001</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <f t="shared" si="10"/>
         <v>0.64443090532156433</v>
       </c>
     </row>
     <row r="27" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W27" s="3">
+      <c r="W27">
         <f t="shared" si="11"/>
         <v>2017</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27">
         <v>0.47459499999999999</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27">
         <f t="shared" si="10"/>
         <v>0.64369538754708922</v>
       </c>
     </row>
     <row r="28" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W28" s="3">
+      <c r="W28">
         <f t="shared" si="11"/>
         <v>2018</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28">
         <v>0.47481400000000001</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28">
         <f t="shared" si="10"/>
         <v>0.64389678969687036</v>
       </c>
     </row>
     <row r="29" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W29" s="3">
+      <c r="W29">
         <f t="shared" si="11"/>
         <v>2019</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29">
         <v>0.47032059999999998</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29">
         <f t="shared" si="10"/>
         <v>0.63975244582712099</v>
       </c>
     </row>
     <row r="30" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W30" s="3">
+      <c r="W30">
         <f t="shared" si="11"/>
         <v>2020</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30">
         <v>0.48092010000000002</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30">
         <f t="shared" si="10"/>
         <v>0.64948824720523413</v>
       </c>
     </row>
     <row r="31" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W31" s="3">
+      <c r="W31">
         <f t="shared" si="11"/>
         <v>2021</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31">
         <v>0.47540209999999999</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31">
         <f t="shared" si="10"/>
         <v>0.64443733677754689</v>
       </c>
     </row>
     <row r="32" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W32" s="3">
+      <c r="W32">
         <v>2022</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32">
         <f>AVERAGE(Y27:Y31)</f>
         <v>0.64425404141077236</v>
       </c>
     </row>
     <row r="33" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W33" s="3">
+      <c r="W33">
         <v>2023</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33">
         <f>Y32</f>
         <v>0.64425404141077236</v>
       </c>

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5F9C8-8819-4C66-9B08-47CCAA95BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2C769-986C-4A6B-90C6-6DB425FE6931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1905" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -149,9 +149,6 @@
     <t>MINIMUM INCOME GUARANTEE PER WEEK</t>
   </si>
   <si>
-    <t>partnered_share</t>
-  </si>
-  <si>
     <t>employed_share</t>
   </si>
   <si>
@@ -168,6 +165,12 @@
   </si>
   <si>
     <t>Implied proportion of responsible adults in cohabiting relationship</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +606,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1060,10 +1063,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1074,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.57630000000000003</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1082,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.56940000000000002</v>
+        <v>0.60860000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1090,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.5716</v>
+        <v>0.60570000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1098,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.56459999999999999</v>
+        <v>0.61019999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1106,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.55630000000000002</v>
+        <v>0.61339999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1114,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.54600000000000004</v>
+        <v>0.61570000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1122,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.54810000000000003</v>
+        <v>0.61919999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1130,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.54100000000000004</v>
+        <v>0.62190000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1138,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.55130000000000001</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1146,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.55389999999999995</v>
+        <v>0.62809999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1154,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.55249999999999999</v>
+        <v>0.64049999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1162,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.55259999999999998</v>
+        <v>0.62729999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1170,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.55269999999999997</v>
+        <v>0.62050000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1178,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.55279999999999996</v>
+        <v>0.61850000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1202,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1369,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,10 +1775,10 @@
         <v>31</v>
       </c>
       <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
         <v>40</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2C769-986C-4A6B-90C6-6DB425FE6931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427F635B-1DDB-4481-817B-442FECC2148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
     <sheet name="social care" sheetId="1" r:id="rId2"/>
-    <sheet name="partnership" sheetId="4" r:id="rId3"/>
-    <sheet name="employment_smales" sheetId="5" r:id="rId4"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId5"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId6"/>
-    <sheet name="raw data" sheetId="3" r:id="rId7"/>
+    <sheet name="retirement" sheetId="8" r:id="rId3"/>
+    <sheet name="partnership" sheetId="4" r:id="rId4"/>
+    <sheet name="employment_smales" sheetId="5" r:id="rId5"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId6"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId7"/>
+    <sheet name="raw data" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -1054,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CF42B-7BCB-429C-A72F-92D7D9CDCB1D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1074,6 +1075,139 @@
         <v>2010</v>
       </c>
       <c r="B2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
         <v>0.60599999999999998</v>
       </c>
     </row>
@@ -1187,7 +1321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1354,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1521,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1688,7 +1822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
   <dimension ref="A1:Y33"/>
   <sheetViews>

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427F635B-1DDB-4481-817B-442FECC2148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0556C1A0-0DFC-4874-BC77-7169EA7F0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="8580" yWindow="4035" windowWidth="28800" windowHeight="15105" activeTab="3" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
     <sheet name="social care" sheetId="1" r:id="rId2"/>
     <sheet name="retirement" sheetId="8" r:id="rId3"/>
-    <sheet name="partnership" sheetId="4" r:id="rId4"/>
-    <sheet name="employment_smales" sheetId="5" r:id="rId5"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId6"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId7"/>
-    <sheet name="raw data" sheetId="3" r:id="rId8"/>
+    <sheet name="students" sheetId="9" r:id="rId4"/>
+    <sheet name="partnership" sheetId="4" r:id="rId5"/>
+    <sheet name="employment_smales" sheetId="5" r:id="rId6"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId7"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId8"/>
+    <sheet name="raw data" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -1058,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CF42B-7BCB-429C-A72F-92D7D9CDCB1D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1188,6 +1189,141 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D18F52-AE20-431C-A8C1-CEFDA270A8FD}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1321,7 +1457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1488,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1655,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1822,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
   <dimension ref="A1:Y33"/>
   <sheetViews>

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0556C1A0-0DFC-4874-BC77-7169EA7F0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F6CE4-63F4-4F2E-B8F7-A33A358ECED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="4035" windowWidth="28800" windowHeight="15105" activeTab="3" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="social care" sheetId="1" r:id="rId2"/>
-    <sheet name="retirement" sheetId="8" r:id="rId3"/>
-    <sheet name="students" sheetId="9" r:id="rId4"/>
-    <sheet name="partnership" sheetId="4" r:id="rId5"/>
-    <sheet name="employment_smales" sheetId="5" r:id="rId6"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId7"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId8"/>
-    <sheet name="raw data" sheetId="3" r:id="rId9"/>
+    <sheet name="disability" sheetId="10" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId2"/>
+    <sheet name="social care" sheetId="1" r:id="rId3"/>
+    <sheet name="retirement" sheetId="8" r:id="rId4"/>
+    <sheet name="students" sheetId="9" r:id="rId5"/>
+    <sheet name="partnership" sheetId="4" r:id="rId6"/>
+    <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
+    <sheet name="raw data" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -540,6 +541,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE8D09-68C3-47E4-AB1B-09AAE2124BA2}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Y33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>91.4</v>
+      </c>
+      <c r="C4">
+        <v>189</v>
+      </c>
+      <c r="D4">
+        <v>40.35</v>
+      </c>
+      <c r="E4">
+        <v>71.8</v>
+      </c>
+      <c r="F4">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G4">
+        <v>28.75</v>
+      </c>
+      <c r="H4">
+        <v>14250</v>
+      </c>
+      <c r="I4">
+        <v>23250</v>
+      </c>
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <f>A4</f>
+        <v>2015</v>
+      </c>
+      <c r="N4" s="2">
+        <f>B4*$K$4/$K4</f>
+        <v>91.4</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:U4" si="0">C4*$K$4/$K4</f>
+        <v>189</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>40.35</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>71.8</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="0"/>
+        <v>144.30000000000001</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="0"/>
+        <v>14250</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="0"/>
+        <v>23250</v>
+      </c>
+      <c r="W4">
+        <v>1994</v>
+      </c>
+      <c r="X4">
+        <v>0.49405969999999999</v>
+      </c>
+      <c r="Y4">
+        <f>2*X4/(2*X4+(1-X4))</f>
+        <v>0.6613654059472992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>91.4</v>
+      </c>
+      <c r="C5">
+        <v>189</v>
+      </c>
+      <c r="D5">
+        <v>40.35</v>
+      </c>
+      <c r="E5">
+        <v>71.8</v>
+      </c>
+      <c r="F5">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G5">
+        <v>28.75</v>
+      </c>
+      <c r="H5">
+        <v>14250</v>
+      </c>
+      <c r="I5">
+        <v>23250</v>
+      </c>
+      <c r="K5" s="1">
+        <v>100.7</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M16" si="1">A5</f>
+        <v>2016</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N12" si="2">B5*$K$4/$K5</f>
+        <v>90.764647467725922</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O12" si="3">C5*$K$4/$K5</f>
+        <v>187.68619662363454</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:P11" si="4">D5*$K$4/$K5</f>
+        <v>40.069513406156901</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q12" si="5">E5*$K$4/$K5</f>
+        <v>71.300893743793438</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R12" si="6">F5*$K$4/$K5</f>
+        <v>143.29692154915591</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5:S12" si="7">G5*$K$4/$K5</f>
+        <v>28.550148957298905</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" ref="T5:T12" si="8">H5*$K$4/$K5</f>
+        <v>14150.943396226414</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5:U12" si="9">I5*$K$4/$K5</f>
+        <v>23088.381330685203</v>
+      </c>
+      <c r="W5">
+        <f>W4+1</f>
+        <v>1995</v>
+      </c>
+      <c r="X5">
+        <v>0.48883369999999998</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y31" si="10">2*X5/(2*X5+(1-X5))</f>
+        <v>0.65666662435166534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>91.4</v>
+      </c>
+      <c r="C6">
+        <v>189</v>
+      </c>
+      <c r="D6">
+        <v>40.35</v>
+      </c>
+      <c r="E6">
+        <v>71.8</v>
+      </c>
+      <c r="F6">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G6">
+        <v>28.75</v>
+      </c>
+      <c r="H6">
+        <v>14250</v>
+      </c>
+      <c r="I6">
+        <v>23250</v>
+      </c>
+      <c r="K6" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>88.394584139264992</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="3"/>
+        <v>182.7852998065764</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="4"/>
+        <v>39.023210831721471</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="5"/>
+        <v>69.439071566731144</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="6"/>
+        <v>139.55512572533851</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="7"/>
+        <v>27.804642166344294</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="8"/>
+        <v>13781.431334622823</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="9"/>
+        <v>22485.493230174081</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W31" si="11">W5+1</f>
+        <v>1996</v>
+      </c>
+      <c r="X6">
+        <v>0.48327110000000001</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="10"/>
+        <v>0.65162882226991414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>91.4</v>
+      </c>
+      <c r="C7">
+        <v>189</v>
+      </c>
+      <c r="D7">
+        <v>40.35</v>
+      </c>
+      <c r="E7">
+        <v>71.8</v>
+      </c>
+      <c r="F7">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G7">
+        <v>28.75</v>
+      </c>
+      <c r="H7">
+        <v>14250</v>
+      </c>
+      <c r="I7">
+        <v>23250</v>
+      </c>
+      <c r="K7" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>86.307837582625112</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="3"/>
+        <v>178.47025495750708</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="4"/>
+        <v>38.10198300283286</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="5"/>
+        <v>67.799811142587345</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="6"/>
+        <v>136.26062322946177</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="7"/>
+        <v>27.148253068932956</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="8"/>
+        <v>13456.090651558074</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="9"/>
+        <v>21954.67422096317</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>1997</v>
+      </c>
+      <c r="X7">
+        <v>0.48084979999999999</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="10"/>
+        <v>0.64942413470967808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>91.4</v>
+      </c>
+      <c r="C8">
+        <v>189</v>
+      </c>
+      <c r="D8">
+        <v>40.35</v>
+      </c>
+      <c r="E8">
+        <v>71.8</v>
+      </c>
+      <c r="F8">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G8">
+        <v>28.75</v>
+      </c>
+      <c r="H8">
+        <v>14250</v>
+      </c>
+      <c r="I8">
+        <v>23250</v>
+      </c>
+      <c r="K8" s="1">
+        <v>107.8</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>84.786641929499069</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
+        <v>175.32467532467533</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="4"/>
+        <v>37.430426716141</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="5"/>
+        <v>66.604823747680896</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="6"/>
+        <v>133.85899814471244</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="7"/>
+        <v>26.669758812615957</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="8"/>
+        <v>13218.923933209648</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="9"/>
+        <v>21567.717996289426</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="11"/>
+        <v>1998</v>
+      </c>
+      <c r="X8">
+        <v>0.47653459999999997</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="10"/>
+        <v>0.64547705146902756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>91.4</v>
+      </c>
+      <c r="C9">
+        <v>189</v>
+      </c>
+      <c r="D9">
+        <v>40.35</v>
+      </c>
+      <c r="E9">
+        <v>71.8</v>
+      </c>
+      <c r="F9">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G9">
+        <v>28.75</v>
+      </c>
+      <c r="H9">
+        <v>14250</v>
+      </c>
+      <c r="I9">
+        <v>23250</v>
+      </c>
+      <c r="K9" s="1">
+        <v>108.7</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>84.084636614535412</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="3"/>
+        <v>173.87304507819687</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="4"/>
+        <v>37.120515179392825</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="5"/>
+        <v>66.053357865685371</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="6"/>
+        <v>132.75068997240112</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="7"/>
+        <v>26.448942042318308</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="8"/>
+        <v>13109.475620975161</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="9"/>
+        <v>21389.144434222631</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>1999</v>
+      </c>
+      <c r="X9">
+        <v>0.47558099999999998</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="10"/>
+        <v>0.64460168570888343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>91.4</v>
+      </c>
+      <c r="C10">
+        <v>189</v>
+      </c>
+      <c r="D10">
+        <v>40.35</v>
+      </c>
+      <c r="E10">
+        <v>71.8</v>
+      </c>
+      <c r="F10">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G10">
+        <v>28.75</v>
+      </c>
+      <c r="H10">
+        <v>14250</v>
+      </c>
+      <c r="I10">
+        <v>23250</v>
+      </c>
+      <c r="K10" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>81.899641577060933</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
+        <v>169.35483870967744</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="4"/>
+        <v>36.155913978494624</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="5"/>
+        <v>64.336917562724011</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="6"/>
+        <v>129.30107526881721</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="7"/>
+        <v>25.761648745519715</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="8"/>
+        <v>12768.817204301076</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="9"/>
+        <v>20833.333333333336</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="X10">
+        <v>0.47576780000000002</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="10"/>
+        <v>0.64477324955863657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>94.15</v>
+      </c>
+      <c r="C11">
+        <v>194.7</v>
+      </c>
+      <c r="D11">
+        <v>41.55</v>
+      </c>
+      <c r="E11">
+        <v>73.95</v>
+      </c>
+      <c r="F11">
+        <v>148.65</v>
+      </c>
+      <c r="G11">
+        <v>29.6</v>
+      </c>
+      <c r="H11">
+        <v>14250</v>
+      </c>
+      <c r="I11">
+        <v>23250</v>
+      </c>
+      <c r="K11" s="1">
+        <v>121.7</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>77.362366474938369</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="3"/>
+        <v>159.9835661462613</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="4"/>
+        <v>34.141331142152836</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="5"/>
+        <v>60.764174198849631</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="6"/>
+        <v>122.14461791290057</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="7"/>
+        <v>24.322103533278554</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="8"/>
+        <v>11709.120788824979</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="9"/>
+        <v>19104.354971240755</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>2001</v>
+      </c>
+      <c r="X11">
+        <v>0.47677979999999998</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="10"/>
+        <v>0.64570195231543648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>103.65</v>
+      </c>
+      <c r="C12">
+        <v>214.35</v>
+      </c>
+      <c r="D12">
+        <v>45.75</v>
+      </c>
+      <c r="E12">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F12">
+        <v>163.65</v>
+      </c>
+      <c r="G12">
+        <v>32.6</v>
+      </c>
+      <c r="H12">
+        <v>14250</v>
+      </c>
+      <c r="I12">
+        <v>23250</v>
+      </c>
+      <c r="K12" s="1">
+        <v>124.57395874315898</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>83.203585280372224</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="3"/>
+        <v>172.06645928459034</v>
+      </c>
+      <c r="P12" s="2">
+        <f>D12*$K$4/$K12</f>
+        <v>36.725171505808291</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="5"/>
+        <v>65.342709520716838</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="6"/>
+        <v>131.36774463225194</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="7"/>
+        <v>26.169193247854651</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="8"/>
+        <v>11438.987846071435</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="9"/>
+        <v>18663.611748853393</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>2002</v>
+      </c>
+      <c r="X12">
+        <v>0.47860950000000002</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="10"/>
+        <v>0.64737782355652385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="H13">
+        <v>14250</v>
+      </c>
+      <c r="I13">
+        <v>23250</v>
+      </c>
+      <c r="K13" s="1">
+        <v>126.63064241784659</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="N13" s="2">
+        <f>N12</f>
+        <v>83.203585280372224</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:S13" si="12">O12</f>
+        <v>172.06645928459034</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="12"/>
+        <v>36.725171505808291</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="12"/>
+        <v>65.342709520716838</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="12"/>
+        <v>131.36774463225194</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="12"/>
+        <v>26.169193247854651</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13:T16" si="13">H13*$K$4/$K13</f>
+        <v>11253.200432308387</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" ref="U13:U16" si="14">I13*$K$4/$K13</f>
+        <v>18360.484915871581</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="11"/>
+        <v>2003</v>
+      </c>
+      <c r="X13">
+        <v>0.47545009999999999</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="10"/>
+        <v>0.64448143654604106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="H14">
+        <v>14250</v>
+      </c>
+      <c r="I14">
+        <v>23250</v>
+      </c>
+      <c r="K14" s="1">
+        <v>129.11704786530214</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N14:N16" si="15">N13</f>
+        <v>83.203585280372224</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14:O16" si="16">O13</f>
+        <v>172.06645928459034</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ref="P14:P16" si="17">P13</f>
+        <v>36.725171505808291</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" ref="Q14:Q16" si="18">Q13</f>
+        <v>65.342709520716838</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14:R16" si="19">R13</f>
+        <v>131.36774463225194</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" ref="S14:S16" si="20">S13</f>
+        <v>26.169193247854651</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="13"/>
+        <v>11036.497686088615</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="14"/>
+        <v>18006.917277302477</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>2004</v>
+      </c>
+      <c r="X14">
+        <v>0.4748154</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="10"/>
+        <v>0.64389807700679014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2026</v>
+      </c>
+      <c r="H15">
+        <v>14250</v>
+      </c>
+      <c r="I15">
+        <v>23250</v>
+      </c>
+      <c r="K15" s="1">
+        <v>131.69938882260817</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="15"/>
+        <v>83.203585280372224</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="16"/>
+        <v>172.06645928459034</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="17"/>
+        <v>36.725171505808291</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="18"/>
+        <v>65.342709520716838</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="19"/>
+        <v>131.36774463225194</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="20"/>
+        <v>26.169193247854651</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="13"/>
+        <v>10820.095770675114</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="14"/>
+        <v>17653.840467943606</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>2005</v>
+      </c>
+      <c r="X15">
+        <v>0.46629369999999998</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="10"/>
+        <v>0.63601678163112885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2027</v>
+      </c>
+      <c r="H16">
+        <v>14250</v>
+      </c>
+      <c r="I16">
+        <v>23250</v>
+      </c>
+      <c r="K16" s="1">
+        <v>135.1276862908702</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="15"/>
+        <v>83.203585280372224</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="16"/>
+        <v>172.06645928459034</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="17"/>
+        <v>36.725171505808291</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="18"/>
+        <v>65.342709520716838</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="19"/>
+        <v>131.36774463225194</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="20"/>
+        <v>26.169193247854651</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="13"/>
+        <v>10545.581287705945</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="14"/>
+        <v>17205.948416783383</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="11"/>
+        <v>2006</v>
+      </c>
+      <c r="X16">
+        <v>0.46935349999999998</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="10"/>
+        <v>0.63885715724636716</v>
+      </c>
+    </row>
+    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>2007</v>
+      </c>
+      <c r="X17">
+        <v>0.4702675</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="10"/>
+        <v>0.63970331929393809</v>
+      </c>
+    </row>
+    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>2008</v>
+      </c>
+      <c r="X18">
+        <v>0.46784019999999998</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="10"/>
+        <v>0.63745385907812036</v>
+      </c>
+    </row>
+    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="11"/>
+        <v>2009</v>
+      </c>
+      <c r="X19">
+        <v>0.47752109999999998</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="10"/>
+        <v>0.64638142900294271</v>
+      </c>
+    </row>
+    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>2010</v>
+      </c>
+      <c r="X20">
+        <v>0.47375149999999999</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="10"/>
+        <v>0.64291910814000863</v>
+      </c>
+    </row>
+    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="11"/>
+        <v>2011</v>
+      </c>
+      <c r="X21">
+        <v>0.47257559999999998</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="10"/>
+        <v>0.64183543445918845</v>
+      </c>
+    </row>
+    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+      <c r="X22">
+        <v>0.47554990000000003</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>0.64457311813040019</v>
+      </c>
+    </row>
+    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f t="shared" si="11"/>
+        <v>2013</v>
+      </c>
+      <c r="X23">
+        <v>0.47603459999999997</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="10"/>
+        <v>0.64501821298769013</v>
+      </c>
+    </row>
+    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>2014</v>
+      </c>
+      <c r="X24">
+        <v>0.4738752</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="10"/>
+        <v>0.64303300577959377</v>
+      </c>
+    </row>
+    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>2015</v>
+      </c>
+      <c r="X25">
+        <v>0.47438409999999998</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="10"/>
+        <v>0.64350137796521267</v>
+      </c>
+    </row>
+    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" si="11"/>
+        <v>2016</v>
+      </c>
+      <c r="X26">
+        <v>0.47539510000000001</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>0.64443090532156433</v>
+      </c>
+    </row>
+    <row r="27" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="11"/>
+        <v>2017</v>
+      </c>
+      <c r="X27">
+        <v>0.47459499999999999</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>0.64369538754708922</v>
+      </c>
+    </row>
+    <row r="28" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="11"/>
+        <v>2018</v>
+      </c>
+      <c r="X28">
+        <v>0.47481400000000001</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="10"/>
+        <v>0.64389678969687036</v>
+      </c>
+    </row>
+    <row r="29" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="11"/>
+        <v>2019</v>
+      </c>
+      <c r="X29">
+        <v>0.47032059999999998</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>0.63975244582712099</v>
+      </c>
+    </row>
+    <row r="30" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="11"/>
+        <v>2020</v>
+      </c>
+      <c r="X30">
+        <v>0.48092010000000002</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>0.64948824720523413</v>
+      </c>
+    </row>
+    <row r="31" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="11"/>
+        <v>2021</v>
+      </c>
+      <c r="X31">
+        <v>0.47540209999999999</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>0.64443733677754689</v>
+      </c>
+    </row>
+    <row r="32" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>2022</v>
+      </c>
+      <c r="Y32">
+        <f>AVERAGE(Y27:Y31)</f>
+        <v>0.64425404141077236</v>
+      </c>
+    </row>
+    <row r="33" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>2023</v>
+      </c>
+      <c r="Y33">
+        <f>Y32</f>
+        <v>0.64425404141077236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F81ED4-EE1A-4486-BAEC-BC92A19478AC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -619,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A30919-82CE-4DA6-A5C0-32D0B4E57BD6}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -1055,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CF42B-7BCB-429C-A72F-92D7D9CDCB1D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1188,11 +2589,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D18F52-AE20-431C-A8C1-CEFDA270A8FD}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1323,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1457,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1624,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1791,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1956,1269 +3357,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
-  <dimension ref="A1:Y33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Y33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2015</v>
-      </c>
-      <c r="B4">
-        <v>91.4</v>
-      </c>
-      <c r="C4">
-        <v>189</v>
-      </c>
-      <c r="D4">
-        <v>40.35</v>
-      </c>
-      <c r="E4">
-        <v>71.8</v>
-      </c>
-      <c r="F4">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G4">
-        <v>28.75</v>
-      </c>
-      <c r="H4">
-        <v>14250</v>
-      </c>
-      <c r="I4">
-        <v>23250</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2">
-        <f>A4</f>
-        <v>2015</v>
-      </c>
-      <c r="N4" s="2">
-        <f>B4*$K$4/$K4</f>
-        <v>91.4</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:U4" si="0">C4*$K$4/$K4</f>
-        <v>189</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>40.35</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" si="0"/>
-        <v>144.30000000000001</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="0"/>
-        <v>28.75</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" si="0"/>
-        <v>14250</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="0"/>
-        <v>23250</v>
-      </c>
-      <c r="W4">
-        <v>1994</v>
-      </c>
-      <c r="X4">
-        <v>0.49405969999999999</v>
-      </c>
-      <c r="Y4">
-        <f>2*X4/(2*X4+(1-X4))</f>
-        <v>0.6613654059472992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2016</v>
-      </c>
-      <c r="B5">
-        <v>91.4</v>
-      </c>
-      <c r="C5">
-        <v>189</v>
-      </c>
-      <c r="D5">
-        <v>40.35</v>
-      </c>
-      <c r="E5">
-        <v>71.8</v>
-      </c>
-      <c r="F5">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G5">
-        <v>28.75</v>
-      </c>
-      <c r="H5">
-        <v>14250</v>
-      </c>
-      <c r="I5">
-        <v>23250</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100.7</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M16" si="1">A5</f>
-        <v>2016</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N12" si="2">B5*$K$4/$K5</f>
-        <v>90.764647467725922</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:O12" si="3">C5*$K$4/$K5</f>
-        <v>187.68619662363454</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" ref="P5:P11" si="4">D5*$K$4/$K5</f>
-        <v>40.069513406156901</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q12" si="5">E5*$K$4/$K5</f>
-        <v>71.300893743793438</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5:R12" si="6">F5*$K$4/$K5</f>
-        <v>143.29692154915591</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" ref="S5:S12" si="7">G5*$K$4/$K5</f>
-        <v>28.550148957298905</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" ref="T5:T12" si="8">H5*$K$4/$K5</f>
-        <v>14150.943396226414</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" ref="U5:U12" si="9">I5*$K$4/$K5</f>
-        <v>23088.381330685203</v>
-      </c>
-      <c r="W5">
-        <f>W4+1</f>
-        <v>1995</v>
-      </c>
-      <c r="X5">
-        <v>0.48883369999999998</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y31" si="10">2*X5/(2*X5+(1-X5))</f>
-        <v>0.65666662435166534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6">
-        <v>91.4</v>
-      </c>
-      <c r="C6">
-        <v>189</v>
-      </c>
-      <c r="D6">
-        <v>40.35</v>
-      </c>
-      <c r="E6">
-        <v>71.8</v>
-      </c>
-      <c r="F6">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G6">
-        <v>28.75</v>
-      </c>
-      <c r="H6">
-        <v>14250</v>
-      </c>
-      <c r="I6">
-        <v>23250</v>
-      </c>
-      <c r="K6" s="1">
-        <v>103.4</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>2017</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="2"/>
-        <v>88.394584139264992</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>182.7852998065764</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="4"/>
-        <v>39.023210831721471</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="5"/>
-        <v>69.439071566731144</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="6"/>
-        <v>139.55512572533851</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="7"/>
-        <v>27.804642166344294</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="8"/>
-        <v>13781.431334622823</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="9"/>
-        <v>22485.493230174081</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ref="W6:W31" si="11">W5+1</f>
-        <v>1996</v>
-      </c>
-      <c r="X6">
-        <v>0.48327110000000001</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="10"/>
-        <v>0.65162882226991414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7">
-        <v>91.4</v>
-      </c>
-      <c r="C7">
-        <v>189</v>
-      </c>
-      <c r="D7">
-        <v>40.35</v>
-      </c>
-      <c r="E7">
-        <v>71.8</v>
-      </c>
-      <c r="F7">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G7">
-        <v>28.75</v>
-      </c>
-      <c r="H7">
-        <v>14250</v>
-      </c>
-      <c r="I7">
-        <v>23250</v>
-      </c>
-      <c r="K7" s="1">
-        <v>105.9</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>2018</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="2"/>
-        <v>86.307837582625112</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>178.47025495750708</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="4"/>
-        <v>38.10198300283286</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="5"/>
-        <v>67.799811142587345</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="6"/>
-        <v>136.26062322946177</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="7"/>
-        <v>27.148253068932956</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="8"/>
-        <v>13456.090651558074</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="9"/>
-        <v>21954.67422096317</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="11"/>
-        <v>1997</v>
-      </c>
-      <c r="X7">
-        <v>0.48084979999999999</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="10"/>
-        <v>0.64942413470967808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8">
-        <v>91.4</v>
-      </c>
-      <c r="C8">
-        <v>189</v>
-      </c>
-      <c r="D8">
-        <v>40.35</v>
-      </c>
-      <c r="E8">
-        <v>71.8</v>
-      </c>
-      <c r="F8">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G8">
-        <v>28.75</v>
-      </c>
-      <c r="H8">
-        <v>14250</v>
-      </c>
-      <c r="I8">
-        <v>23250</v>
-      </c>
-      <c r="K8" s="1">
-        <v>107.8</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>2019</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="2"/>
-        <v>84.786641929499069</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
-        <v>175.32467532467533</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="4"/>
-        <v>37.430426716141</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="5"/>
-        <v>66.604823747680896</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="6"/>
-        <v>133.85899814471244</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="7"/>
-        <v>26.669758812615957</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="8"/>
-        <v>13218.923933209648</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="9"/>
-        <v>21567.717996289426</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="11"/>
-        <v>1998</v>
-      </c>
-      <c r="X8">
-        <v>0.47653459999999997</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="10"/>
-        <v>0.64547705146902756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9">
-        <v>91.4</v>
-      </c>
-      <c r="C9">
-        <v>189</v>
-      </c>
-      <c r="D9">
-        <v>40.35</v>
-      </c>
-      <c r="E9">
-        <v>71.8</v>
-      </c>
-      <c r="F9">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G9">
-        <v>28.75</v>
-      </c>
-      <c r="H9">
-        <v>14250</v>
-      </c>
-      <c r="I9">
-        <v>23250</v>
-      </c>
-      <c r="K9" s="1">
-        <v>108.7</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>2020</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>84.084636614535412</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="3"/>
-        <v>173.87304507819687</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="4"/>
-        <v>37.120515179392825</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="5"/>
-        <v>66.053357865685371</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="6"/>
-        <v>132.75068997240112</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="7"/>
-        <v>26.448942042318308</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="8"/>
-        <v>13109.475620975161</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="9"/>
-        <v>21389.144434222631</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="11"/>
-        <v>1999</v>
-      </c>
-      <c r="X9">
-        <v>0.47558099999999998</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="10"/>
-        <v>0.64460168570888343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10">
-        <v>91.4</v>
-      </c>
-      <c r="C10">
-        <v>189</v>
-      </c>
-      <c r="D10">
-        <v>40.35</v>
-      </c>
-      <c r="E10">
-        <v>71.8</v>
-      </c>
-      <c r="F10">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G10">
-        <v>28.75</v>
-      </c>
-      <c r="H10">
-        <v>14250</v>
-      </c>
-      <c r="I10">
-        <v>23250</v>
-      </c>
-      <c r="K10" s="1">
-        <v>111.6</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>2021</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="2"/>
-        <v>81.899641577060933</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>169.35483870967744</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="4"/>
-        <v>36.155913978494624</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="5"/>
-        <v>64.336917562724011</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="6"/>
-        <v>129.30107526881721</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="7"/>
-        <v>25.761648745519715</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="8"/>
-        <v>12768.817204301076</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="9"/>
-        <v>20833.333333333336</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="X10">
-        <v>0.47576780000000002</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="10"/>
-        <v>0.64477324955863657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>94.15</v>
-      </c>
-      <c r="C11">
-        <v>194.7</v>
-      </c>
-      <c r="D11">
-        <v>41.55</v>
-      </c>
-      <c r="E11">
-        <v>73.95</v>
-      </c>
-      <c r="F11">
-        <v>148.65</v>
-      </c>
-      <c r="G11">
-        <v>29.6</v>
-      </c>
-      <c r="H11">
-        <v>14250</v>
-      </c>
-      <c r="I11">
-        <v>23250</v>
-      </c>
-      <c r="K11" s="1">
-        <v>121.7</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>2022</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="2"/>
-        <v>77.362366474938369</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>159.9835661462613</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="4"/>
-        <v>34.141331142152836</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="5"/>
-        <v>60.764174198849631</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="6"/>
-        <v>122.14461791290057</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="7"/>
-        <v>24.322103533278554</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="8"/>
-        <v>11709.120788824979</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="9"/>
-        <v>19104.354971240755</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="11"/>
-        <v>2001</v>
-      </c>
-      <c r="X11">
-        <v>0.47677979999999998</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="10"/>
-        <v>0.64570195231543648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>103.65</v>
-      </c>
-      <c r="C12">
-        <v>214.35</v>
-      </c>
-      <c r="D12">
-        <v>45.75</v>
-      </c>
-      <c r="E12">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="F12">
-        <v>163.65</v>
-      </c>
-      <c r="G12">
-        <v>32.6</v>
-      </c>
-      <c r="H12">
-        <v>14250</v>
-      </c>
-      <c r="I12">
-        <v>23250</v>
-      </c>
-      <c r="K12" s="1">
-        <v>124.57395874315898</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>83.203585280372224</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
-        <v>172.06645928459034</v>
-      </c>
-      <c r="P12" s="2">
-        <f>D12*$K$4/$K12</f>
-        <v>36.725171505808291</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="5"/>
-        <v>65.342709520716838</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="6"/>
-        <v>131.36774463225194</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="7"/>
-        <v>26.169193247854651</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" si="8"/>
-        <v>11438.987846071435</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="9"/>
-        <v>18663.611748853393</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="11"/>
-        <v>2002</v>
-      </c>
-      <c r="X12">
-        <v>0.47860950000000002</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="10"/>
-        <v>0.64737782355652385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2024</v>
-      </c>
-      <c r="H13">
-        <v>14250</v>
-      </c>
-      <c r="I13">
-        <v>23250</v>
-      </c>
-      <c r="K13" s="1">
-        <v>126.63064241784659</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-      <c r="N13" s="2">
-        <f>N12</f>
-        <v>83.203585280372224</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:S13" si="12">O12</f>
-        <v>172.06645928459034</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="12"/>
-        <v>36.725171505808291</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="12"/>
-        <v>65.342709520716838</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="12"/>
-        <v>131.36774463225194</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="12"/>
-        <v>26.169193247854651</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" ref="T13:T16" si="13">H13*$K$4/$K13</f>
-        <v>11253.200432308387</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" ref="U13:U16" si="14">I13*$K$4/$K13</f>
-        <v>18360.484915871581</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="11"/>
-        <v>2003</v>
-      </c>
-      <c r="X13">
-        <v>0.47545009999999999</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="10"/>
-        <v>0.64448143654604106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2025</v>
-      </c>
-      <c r="H14">
-        <v>14250</v>
-      </c>
-      <c r="I14">
-        <v>23250</v>
-      </c>
-      <c r="K14" s="1">
-        <v>129.11704786530214</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ref="N14:N16" si="15">N13</f>
-        <v>83.203585280372224</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" ref="O14:O16" si="16">O13</f>
-        <v>172.06645928459034</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" ref="P14:P16" si="17">P13</f>
-        <v>36.725171505808291</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" ref="Q14:Q16" si="18">Q13</f>
-        <v>65.342709520716838</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" ref="R14:R16" si="19">R13</f>
-        <v>131.36774463225194</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" ref="S14:S16" si="20">S13</f>
-        <v>26.169193247854651</v>
-      </c>
-      <c r="T14" s="2">
-        <f t="shared" si="13"/>
-        <v>11036.497686088615</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="14"/>
-        <v>18006.917277302477</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="11"/>
-        <v>2004</v>
-      </c>
-      <c r="X14">
-        <v>0.4748154</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="10"/>
-        <v>0.64389807700679014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2026</v>
-      </c>
-      <c r="H15">
-        <v>14250</v>
-      </c>
-      <c r="I15">
-        <v>23250</v>
-      </c>
-      <c r="K15" s="1">
-        <v>131.69938882260817</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="15"/>
-        <v>83.203585280372224</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="16"/>
-        <v>172.06645928459034</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="17"/>
-        <v>36.725171505808291</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="18"/>
-        <v>65.342709520716838</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="19"/>
-        <v>131.36774463225194</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="20"/>
-        <v>26.169193247854651</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" si="13"/>
-        <v>10820.095770675114</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="14"/>
-        <v>17653.840467943606</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="11"/>
-        <v>2005</v>
-      </c>
-      <c r="X15">
-        <v>0.46629369999999998</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="10"/>
-        <v>0.63601678163112885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2027</v>
-      </c>
-      <c r="H16">
-        <v>14250</v>
-      </c>
-      <c r="I16">
-        <v>23250</v>
-      </c>
-      <c r="K16" s="1">
-        <v>135.1276862908702</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="15"/>
-        <v>83.203585280372224</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="16"/>
-        <v>172.06645928459034</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="17"/>
-        <v>36.725171505808291</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="18"/>
-        <v>65.342709520716838</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="19"/>
-        <v>131.36774463225194</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="20"/>
-        <v>26.169193247854651</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="13"/>
-        <v>10545.581287705945</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="14"/>
-        <v>17205.948416783383</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="11"/>
-        <v>2006</v>
-      </c>
-      <c r="X16">
-        <v>0.46935349999999998</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="10"/>
-        <v>0.63885715724636716</v>
-      </c>
-    </row>
-    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W17">
-        <f t="shared" si="11"/>
-        <v>2007</v>
-      </c>
-      <c r="X17">
-        <v>0.4702675</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="10"/>
-        <v>0.63970331929393809</v>
-      </c>
-    </row>
-    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W18">
-        <f t="shared" si="11"/>
-        <v>2008</v>
-      </c>
-      <c r="X18">
-        <v>0.46784019999999998</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="10"/>
-        <v>0.63745385907812036</v>
-      </c>
-    </row>
-    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W19">
-        <f t="shared" si="11"/>
-        <v>2009</v>
-      </c>
-      <c r="X19">
-        <v>0.47752109999999998</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="10"/>
-        <v>0.64638142900294271</v>
-      </c>
-    </row>
-    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W20">
-        <f t="shared" si="11"/>
-        <v>2010</v>
-      </c>
-      <c r="X20">
-        <v>0.47375149999999999</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="10"/>
-        <v>0.64291910814000863</v>
-      </c>
-    </row>
-    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W21">
-        <f t="shared" si="11"/>
-        <v>2011</v>
-      </c>
-      <c r="X21">
-        <v>0.47257559999999998</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="10"/>
-        <v>0.64183543445918845</v>
-      </c>
-    </row>
-    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W22">
-        <f t="shared" si="11"/>
-        <v>2012</v>
-      </c>
-      <c r="X22">
-        <v>0.47554990000000003</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="10"/>
-        <v>0.64457311813040019</v>
-      </c>
-    </row>
-    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W23">
-        <f t="shared" si="11"/>
-        <v>2013</v>
-      </c>
-      <c r="X23">
-        <v>0.47603459999999997</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="10"/>
-        <v>0.64501821298769013</v>
-      </c>
-    </row>
-    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W24">
-        <f t="shared" si="11"/>
-        <v>2014</v>
-      </c>
-      <c r="X24">
-        <v>0.4738752</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="10"/>
-        <v>0.64303300577959377</v>
-      </c>
-    </row>
-    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W25">
-        <f t="shared" si="11"/>
-        <v>2015</v>
-      </c>
-      <c r="X25">
-        <v>0.47438409999999998</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="10"/>
-        <v>0.64350137796521267</v>
-      </c>
-    </row>
-    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W26">
-        <f t="shared" si="11"/>
-        <v>2016</v>
-      </c>
-      <c r="X26">
-        <v>0.47539510000000001</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="10"/>
-        <v>0.64443090532156433</v>
-      </c>
-    </row>
-    <row r="27" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W27">
-        <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="X27">
-        <v>0.47459499999999999</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="10"/>
-        <v>0.64369538754708922</v>
-      </c>
-    </row>
-    <row r="28" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W28">
-        <f t="shared" si="11"/>
-        <v>2018</v>
-      </c>
-      <c r="X28">
-        <v>0.47481400000000001</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="10"/>
-        <v>0.64389678969687036</v>
-      </c>
-    </row>
-    <row r="29" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W29">
-        <f t="shared" si="11"/>
-        <v>2019</v>
-      </c>
-      <c r="X29">
-        <v>0.47032059999999998</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="10"/>
-        <v>0.63975244582712099</v>
-      </c>
-    </row>
-    <row r="30" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W30">
-        <f t="shared" si="11"/>
-        <v>2020</v>
-      </c>
-      <c r="X30">
-        <v>0.48092010000000002</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="10"/>
-        <v>0.64948824720523413</v>
-      </c>
-    </row>
-    <row r="31" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W31">
-        <f t="shared" si="11"/>
-        <v>2021</v>
-      </c>
-      <c r="X31">
-        <v>0.47540209999999999</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="10"/>
-        <v>0.64443733677754689</v>
-      </c>
-    </row>
-    <row r="32" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W32">
-        <v>2022</v>
-      </c>
-      <c r="Y32">
-        <f>AVERAGE(Y27:Y31)</f>
-        <v>0.64425404141077236</v>
-      </c>
-    </row>
-    <row r="33" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W33">
-        <v>2023</v>
-      </c>
-      <c r="Y33">
-        <f>Y32</f>
-        <v>0.64425404141077236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F6CE4-63F4-4F2E-B8F7-A33A358ECED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BE7F8-84EB-4E32-A6F1-96A5F0E23BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="5" activeTab="8" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE8D09-68C3-47E4-AB1B-09AAE2124BA2}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B19"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2881,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.53940549999999998</v>
+        <v>0.63684130000000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.54004809999999992</v>
+        <v>0.63684130000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.55193539999999996</v>
+        <v>0.63086129999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.57619909999999996</v>
+        <v>0.62820810000000005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.57942509999999992</v>
+        <v>0.63444250000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.57820819999999995</v>
+        <v>0.64983950000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.57820819999999995</v>
+        <v>0.66639119999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.57820819999999995</v>
+        <v>0.67221770000000003</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2945,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.57820819999999995</v>
+        <v>0.67153039999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.57820819999999995</v>
+        <v>0.67241660000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.57820819999999995</v>
+        <v>0.69137210000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2969,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.57820819999999995</v>
+        <v>0.703434</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.57820819999999995</v>
+        <v>0.69511619999999996</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.57820819999999995</v>
+        <v>0.69436249999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.57820819999999995</v>
+        <v>0.69360880000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.57820819999999995</v>
+        <v>0.69285509999999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.57820819999999995</v>
+        <v>0.69210139999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.57820819999999995</v>
+        <v>0.69134770000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3030,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,7 +3048,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.39165939999999999</v>
+        <v>0.39854529999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.40846290000000002</v>
+        <v>0.39854529999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.41123969999999999</v>
+        <v>0.4029663</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.43660460000000001</v>
+        <v>0.39655180000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.44596649999999999</v>
+        <v>0.4070319</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.45383590000000001</v>
+        <v>0.40790100000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.45383590000000001</v>
+        <v>0.41726039999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.45383590000000001</v>
+        <v>0.42810779999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.45383590000000001</v>
+        <v>0.42215740000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.45383590000000001</v>
+        <v>0.41901169999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.45383590000000001</v>
+        <v>0.42423159999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.45383590000000001</v>
+        <v>0.41884729999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.45383590000000001</v>
+        <v>0.42949969999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.45383590000000001</v>
+        <v>0.42430040000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.45383590000000001</v>
+        <v>0.4191011</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.45383590000000001</v>
+        <v>0.41390179999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.45383590000000001</v>
+        <v>0.40870250000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.45383590000000001</v>
+        <v>0.40350320000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3215,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.71755429999999998</v>
+        <v>0.7511234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.73036599999999996</v>
+        <v>0.7511234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.74233179999999999</v>
+        <v>0.74668140000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.74778829999999996</v>
+        <v>0.74351520000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.74564959999999991</v>
+        <v>0.74422900000000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.74624679999999999</v>
+        <v>0.73707429999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.74345260000000002</v>
+        <v>0.74269050000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.74345260000000002</v>
+        <v>0.74164249999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.74345260000000002</v>
+        <v>0.73936999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.74345260000000002</v>
+        <v>0.7404522</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.74345260000000002</v>
+        <v>0.72219089999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.74345260000000002</v>
+        <v>0.72516029999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.74345260000000002</v>
+        <v>0.74010039999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.74345260000000002</v>
+        <v>0.73162090000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.74345260000000002</v>
+        <v>0.738754466666667</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.74345260000000002</v>
+        <v>0.74198476666666702</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.74345260000000002</v>
+        <v>0.74521506666666704</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.74345260000000002</v>
+        <v>0.74844536666666694</v>
       </c>
     </row>
   </sheetData>

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BE7F8-84EB-4E32-A6F1-96A5F0E23BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1117CD45-C575-4074-A068-96F2E7D9BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="5" activeTab="8" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="20280" activeTab="4" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -2591,610 +2591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D18F52-AE20-431C-A8C1-CEFDA270A8FD}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.60860000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.60570000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.61019999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.61339999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.61570000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.61919999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.62190000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.62809999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.64049999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.62729999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.62050000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.61850000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.63684130000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.63684130000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.63086129999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.62820810000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.63444250000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.64983950000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.66639119999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.67221770000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.67153039999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.67241660000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.69137210000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.703434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.69511619999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.69436249999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.69360880000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.69285509999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.69210139999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.69134770000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.39854529999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.39854529999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.4029663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.39655180000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.4070319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.40790100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.41726039999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.42810779999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.42215740000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.41901169999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.42423159999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.41884729999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.42949969999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.42430040000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.4191011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.41390179999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.40870250000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.40350320000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3204,10 +2601,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +2612,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.7511234</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +2620,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.7511234</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +2628,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.74668140000000005</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +2636,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.74351520000000004</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +2644,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.74422900000000003</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +2652,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.73707429999999996</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +2660,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.74269050000000003</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +2668,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.74164249999999998</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +2676,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.73936999999999997</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +2684,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.7404522</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +2692,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.72219089999999997</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +2700,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.72516029999999998</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +2708,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.74010039999999999</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +2716,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.73162090000000002</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +2724,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.738754466666667</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +2732,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.74198476666666702</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +2740,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.74521506666666704</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +2748,996 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.74844536666666694</v>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.60860000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.60570000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.61019999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.61339999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.61570000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.61919999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.62190000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.62809999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.64049999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.62729999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.61850000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.63684130000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.63684130000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.63086129999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.62820810000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.63444250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.64983950000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.66639119999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.67221770000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.67153039999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.67241660000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.69137210000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.703434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.70015435151515204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.70666020046620004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.71316604941724904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.71967189836829804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.72617774731934703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.73268359627039603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.73918944522144503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.74569529417249403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.75220114312354303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.75870699207459202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.76521284102564102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.77171868997669002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.77822453892773902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.78473038787878802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.39854529999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.39854529999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.4029663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.39655180000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.4070319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.40790100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.41726039999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.42810779999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.42215740000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.41901169999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.42423159999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.41884729999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.42949969999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.43197885000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.4346719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.43736494999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.440058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.44275104999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.44544410000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.44813714999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.45083020000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.45352324999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.45621630000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.45890934999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.46160240000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.46429545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.74668140000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.74351520000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.74422900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.73707429999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.74269050000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.74164249999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.73936999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.7404522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.73668559333333306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.73539384848484901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.73410210363636397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.73281035878787903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.73151861393939399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.73022686909090895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.72893512424242402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.72764337939393897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.72635163454545504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.72505988969696999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.72376814484848495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.72247640000000002</v>
       </c>
     </row>
   </sheetData>

--- a/input/policy parameters.xlsx
+++ b/input/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1117CD45-C575-4074-A068-96F2E7D9BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27D450-8EE4-43B0-9BE0-0058483CEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="20280" activeTab="4" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE8D09-68C3-47E4-AB1B-09AAE2124BA2}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -563,7 +561,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +569,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +577,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>3.9199999999999999E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +585,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>3.7100000000000001E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +593,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>3.73E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +601,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>3.7600000000000001E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +609,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>3.61E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +617,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>3.3700000000000001E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +625,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>2.98E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +633,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>2.76E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +641,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>2.76E-2</v>
+        <v>2.92E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +649,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>2.9600000000000001E-2</v>
+        <v>2.64E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +657,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>2.7E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +665,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>2.6499999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D18F52-AE20-431C-A8C1-CEFDA270A8FD}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2824,9 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8252C88-1FFA-4D3B-9F14-2D9286827575}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2843,7 +2839,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.60599999999999998</v>
+        <v>0.62239999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,7 +2847,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.60860000000000003</v>
+        <v>0.62239999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +2855,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.60570000000000002</v>
+        <v>0.62150000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2867,7 +2863,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.61019999999999996</v>
+        <v>0.62319999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2871,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.61339999999999995</v>
+        <v>0.62560000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,7 +2879,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.61570000000000003</v>
+        <v>0.62690000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,7 +2887,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.61919999999999997</v>
+        <v>0.63339999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2895,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.62190000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2903,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.624</v>
+        <v>0.63529999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +2911,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.62809999999999999</v>
+        <v>0.63819999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +2919,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.64049999999999996</v>
+        <v>0.64080000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +2927,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.62729999999999997</v>
+        <v>0.63190000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +2935,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.62050000000000005</v>
+        <v>0.63139999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2943,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,7 +2951,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2963,7 +2959,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,7 +2967,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2979,7 +2975,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2987,7 +2983,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +2991,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,7 +2999,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,7 +3007,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3015,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3027,7 +3023,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3035,7 +3031,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3043,7 +3039,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>0.61850000000000005</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3056,9 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3075,7 +3069,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.63684130000000005</v>
+        <v>0.46429999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,7 +3077,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.63684130000000005</v>
+        <v>0.46429999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3085,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.63086129999999996</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,7 +3093,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.62820810000000005</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,7 +3101,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.63444250000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,7 +3109,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.64983950000000001</v>
+        <v>0.46929999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3117,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.66639119999999996</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3125,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.67221770000000003</v>
+        <v>0.49919999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3133,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.67153039999999997</v>
+        <v>0.49619999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3147,7 +3141,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.67241660000000003</v>
+        <v>0.49309999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3149,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.69137210000000004</v>
+        <v>0.49930000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3157,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.703434</v>
+        <v>0.51619999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3165,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.70015435151515204</v>
+        <v>0.52280000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3173,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.70666020046620004</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3181,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.71316604941724904</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3189,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.71967189836829804</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,7 +3197,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.72617774731934703</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3211,7 +3205,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.73268359627039603</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3213,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>0.73918944522144503</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,7 +3221,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>0.74569529417249403</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3229,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>0.75220114312354303</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,7 +3237,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>0.75870699207459202</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3245,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>0.76521284102564102</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3253,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>0.77171868997669002</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +3261,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>0.77822453892773902</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +3269,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>0.78473038787878802</v>
+        <v>0.50560000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3287,9 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3306,7 +3298,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.39854529999999999</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3306,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.39854529999999999</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3314,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.4029663</v>
+        <v>0.25169999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3322,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.39655180000000001</v>
+        <v>0.24229999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3330,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.4070319</v>
+        <v>0.25609999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3338,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.40790100000000001</v>
+        <v>0.25850000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3346,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.41726039999999998</v>
+        <v>0.26219999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3354,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.42810779999999998</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3362,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.42215740000000002</v>
+        <v>0.25009999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3370,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.41901169999999999</v>
+        <v>0.25119999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,7 +3378,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.42423159999999999</v>
+        <v>0.24579999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3386,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.41884729999999998</v>
+        <v>0.25340000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3394,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.42949969999999998</v>
+        <v>0.27029999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3402,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.43197885000000003</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3410,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.4346719</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3418,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.43736494999999997</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3426,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.440058</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3434,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.44275104999999998</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3442,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>0.44544410000000001</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,7 +3450,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>0.44813714999999998</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3458,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>0.45083020000000001</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3466,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>0.45352324999999999</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3474,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>0.45621630000000002</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3482,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>0.45890934999999999</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3490,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>0.46160240000000002</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3498,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>0.46429545</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3518,9 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3537,7 +3527,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.7511234</v>
+        <v>0.69540000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3535,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.7511234</v>
+        <v>0.69540000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3543,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.74668140000000005</v>
+        <v>0.69930000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3551,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.74351520000000004</v>
+        <v>0.69679999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3559,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.74422900000000003</v>
+        <v>0.69920000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3567,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.73707429999999996</v>
+        <v>0.69220000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3575,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.74269050000000003</v>
+        <v>0.6905</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3583,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.74164249999999998</v>
+        <v>0.68110000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3591,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.73936999999999997</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3599,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.7404522</v>
+        <v>0.66810000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3607,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.73668559333333306</v>
+        <v>0.64080000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3615,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.73539384848484901</v>
+        <v>0.64239999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3623,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.73410210363636397</v>
+        <v>0.65720000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3631,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.73281035878787903</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3639,7 @@
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.73151861393939399</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3647,7 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.73022686909090895</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3655,7 @@
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.72893512424242402</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3663,7 @@
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.72764337939393897</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3671,7 @@
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>0.72635163454545504</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3679,7 @@
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>0.72505988969696999</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3687,7 @@
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>0.72376814484848495</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3695,7 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>0.72247640000000002</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3703,7 @@
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>0.72247640000000002</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3711,7 @@
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>0.72247640000000002</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3719,7 @@
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>0.72247640000000002</v>
+        <v>0.6482</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3727,7 @@
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>0.72247640000000002</v>
+        <v>0.6482</v>
       </c>
     </row>
   </sheetData>
